--- a/mbs-perturbation/chatty/randomForest/smote/chatty-randomForest-smote-results.xlsx
+++ b/mbs-perturbation/chatty/randomForest/smote/chatty-randomForest-smote-results.xlsx
@@ -467,16 +467,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.8875968992248062</v>
+        <v>0.7695167286245354</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9913419913419913</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9366053169734151</v>
+        <v>0.869747899159664</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9644739318652362</v>
+        <v>0.9495192307692307</v>
       </c>
     </row>
     <row r="3">
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9871244635193133</v>
+        <v>0.9626168224299065</v>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>0.9951690821256038</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9935205183585313</v>
+        <v>0.9786223277909739</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9999623564840956</v>
+        <v>0.9947974730583427</v>
       </c>
     </row>
     <row r="4">
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9826839826839827</v>
+        <v>0.9765258215962441</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9869565217391304</v>
+        <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9848156182212582</v>
+        <v>0.98812351543943</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9989413988657845</v>
+        <v>0.9823834076551469</v>
       </c>
     </row>
     <row r="5">
@@ -527,13 +527,13 @@
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9956521739130435</v>
+        <v>0.9903846153846154</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9978213507625272</v>
+        <v>0.9951690821256038</v>
       </c>
       <c r="E5" t="n">
-        <v>1</v>
+        <v>0.9998838721664809</v>
       </c>
     </row>
     <row r="6">
@@ -543,16 +543,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>0.9951456310679612</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9956521739130435</v>
+        <v>0.9903381642512077</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9978213507625272</v>
+        <v>0.9927360774818401</v>
       </c>
       <c r="E6" t="n">
-        <v>1</v>
+        <v>0.999113164834652</v>
       </c>
     </row>
     <row r="7">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9714810690856204</v>
+        <v>0.9407610007437294</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9939205721814417</v>
+        <v>0.9951783723522855</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9821168310156517</v>
+        <v>0.9648797803995024</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9926755374430233</v>
+        <v>0.9851394296967706</v>
       </c>
     </row>
   </sheetData>
